--- a/Soothsayer_for_Project_Contingency_1.4.xlsx
+++ b/Soothsayer_for_Project_Contingency_1.4.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Documents\GitHub\soothsayer\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\SPYDER\William\My Documents\Statistical PERT\Site Downloads\Soothsayer\Version 1.4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5CAF929-46DD-4DF6-9037-324FE4A84055}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAD69E2D-3D7B-40F0-A649-0FF146A6CE51}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3177,12 +3177,6 @@
     <xf numFmtId="0" fontId="24" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="1" fontId="9" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="14" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3203,6 +3197,12 @@
     </xf>
     <xf numFmtId="1" fontId="14" fillId="12" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="14" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3616,7 +3616,7 @@
   <dimension ref="A30:J45"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q17" sqref="Q17"/>
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3847,17 +3847,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="75" t="s">
         <v>572</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
       <c r="E1" s="3"/>
-      <c r="F1" s="75" t="s">
+      <c r="F1" s="73" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="75" t="s">
+      <c r="G1" s="73" t="s">
         <v>26</v>
       </c>
       <c r="H1" s="56"/>
@@ -3872,22 +3872,22 @@
       <c r="O1" s="28"/>
     </row>
     <row r="2" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="69"/>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
+      <c r="A2" s="76"/>
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
       <c r="E2" s="3"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="70" t="s">
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="70"/>
-      <c r="M2" s="70"/>
-      <c r="N2" s="71"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="68"/>
+      <c r="L2" s="68"/>
+      <c r="M2" s="68"/>
+      <c r="N2" s="69"/>
       <c r="O2" s="28"/>
     </row>
     <row r="3" spans="1:15" s="32" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3914,13 +3914,13 @@
         <f>SUM(G4:G1003)</f>
         <v>27</v>
       </c>
-      <c r="H3" s="72"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="73"/>
-      <c r="K3" s="73"/>
-      <c r="L3" s="73"/>
-      <c r="M3" s="73"/>
-      <c r="N3" s="74"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="71"/>
+      <c r="L3" s="71"/>
+      <c r="M3" s="71"/>
+      <c r="N3" s="72"/>
       <c r="O3" s="33"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -29019,16 +29019,16 @@
     <sortCondition descending="1" ref="D4:D18"/>
   </sortState>
   <mergeCells count="10">
+    <mergeCell ref="A1011:D1011"/>
+    <mergeCell ref="A1012:D1012"/>
+    <mergeCell ref="A1023:F1023"/>
+    <mergeCell ref="A1013:G1013"/>
+    <mergeCell ref="A1:D2"/>
     <mergeCell ref="H2:N3"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="A1009:G1009"/>
     <mergeCell ref="A1010:F1010"/>
-    <mergeCell ref="A1011:D1011"/>
-    <mergeCell ref="A1012:D1012"/>
-    <mergeCell ref="A1023:F1023"/>
-    <mergeCell ref="A1013:G1013"/>
-    <mergeCell ref="A1:D2"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="decimal" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="At Risk input warning" error="The percentage you entered should be between 20% and 50% for most project estimation purposes.  Change the Excel Data Validation for this cell if you need to use a value outside this range." promptTitle="At Risk Error Distribution" prompt="Enter an At Risk error distribution approximation between 20% and 50%, where 33% is a normal, decreasing error, and 50% is a uniform error." sqref="K15" xr:uid="{00000000-0002-0000-0000-000000000000}">
